--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,10 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,18 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,23 +209,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>near</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array&lt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skills</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,131 +614,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="7.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="1" customWidth="1"/>
+    <col min="15" max="16" width="2.5" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>52</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -753,12 +755,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -779,12 +781,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -820,13 +822,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -839,85 +841,85 @@
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -926,163 +928,163 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
   <si>
     <t>//注释行</t>
   </si>
@@ -36,18 +39,6 @@
     <t>&gt;</t>
   </si>
   <si>
-    <t>array&lt;&gt;</t>
-  </si>
-  <si>
-    <t>dict&lt;&gt;</t>
-  </si>
-  <si>
-    <t>expr(def)</t>
-  </si>
-  <si>
-    <t>expr</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -84,12 +75,6 @@
     <t>attr.speed</t>
   </si>
   <si>
-    <t>skills</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>atk</t>
   </si>
   <si>
@@ -193,30 +178,94 @@
   </si>
   <si>
     <t>throw exception</t>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>unction(def)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>unction()</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>able</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ist</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -321,99 +370,152 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff7f7f7f"/>
-      <rgbColor rgb="fffabf8f"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FFFABF8F"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -539,7 +641,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -548,7 +650,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -557,7 +659,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -631,7 +733,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -639,7 +741,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -658,7 +760,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -688,7 +790,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -714,7 +816,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -740,7 +842,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -766,7 +868,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -792,7 +894,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -818,7 +920,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -844,7 +946,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -870,7 +972,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -896,7 +998,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -909,9 +1011,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -926,7 +1034,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -934,7 +1042,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -953,7 +1061,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -979,7 +1087,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1005,7 +1113,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1031,7 +1139,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1057,7 +1165,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1083,7 +1191,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1109,7 +1217,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1135,7 +1243,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1161,7 +1269,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1187,7 +1295,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1200,9 +1308,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1216,7 +1330,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1235,7 +1349,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1265,7 +1379,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1291,7 +1405,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1317,7 +1431,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1343,7 +1457,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1369,7 +1483,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1395,7 +1509,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1421,7 +1535,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1447,7 +1561,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1473,7 +1587,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1486,50 +1600,51 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:U10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IU10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.57812" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.57812" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.57812" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.57812" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.57812" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.57812" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.57812" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.57812" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.57812" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.57812" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.57812" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.57812" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.57812" style="1" customWidth="1"/>
-    <col min="15" max="15" width="2.57812" style="1" customWidth="1"/>
-    <col min="16" max="16" width="2.57812" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5781" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.2891" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17.2891" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.2891" style="1" customWidth="1"/>
-    <col min="21" max="21" width="17.2891" style="1" customWidth="1"/>
-    <col min="22" max="256" width="8.73438" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="7.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="7.625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="2.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="7.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="2.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.625" style="17" customWidth="1"/>
+    <col min="19" max="20" width="17.25" style="1" customWidth="1"/>
+    <col min="21" max="255" width="8.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1551,10 +1666,9 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="4">
+    </row>
+    <row r="2" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5"/>
@@ -1576,204 +1690,195 @@
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="6">
+    </row>
+    <row r="3" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s" s="7">
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s" s="7">
+      <c r="G3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s" s="7">
+      <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s" s="7">
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="s" s="7">
+      <c r="J3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K3" t="s" s="7">
+      <c r="K3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L3" t="s" s="7">
+      <c r="L3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M3" t="s" s="7">
+      <c r="M3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N3" t="s" s="7">
+      <c r="N3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O3" t="s" s="7">
+      <c r="O3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P3" t="s" s="7">
+      <c r="P3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" t="s" s="7">
+      <c r="Q3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R3" t="s" s="7">
+      <c r="R3" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="S3" t="s" s="7">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="T3" t="s" s="7">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="U3" t="s" s="8">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="9">
+      <c r="E4" s="10"/>
+      <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="10">
+      <c r="G4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="10">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="10">
+      <c r="K4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" t="s" s="10">
+      <c r="L4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s" s="10">
+      <c r="M4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" t="s" s="10">
+      <c r="N4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" t="s" s="10">
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L4" t="s" s="10">
+      <c r="R4" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s" s="10">
+      <c r="T4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N4" t="s" s="10">
+    </row>
+    <row r="5" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" t="s" s="10">
+      <c r="B5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R4" t="s" s="10">
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="15">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S4" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="T4" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="U4" t="s" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="13">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s" s="13">
-        <v>28</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="16">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>2</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>100</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>1</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <v>100</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <v>100</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="16">
+      <c r="Q6" s="15">
         <v>100</v>
       </c>
-      <c r="R6" s="3"/>
+      <c r="R6" s="15"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="16">
+    </row>
+    <row r="7" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="15">
         <v>3</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="C7" s="16">
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="15">
         <v>3</v>
       </c>
       <c r="D7" s="3"/>
@@ -1793,9 +1898,8 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
+    </row>
+    <row r="8" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1816,9 +1920,8 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
+    </row>
+    <row r="9" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1839,9 +1942,8 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
+    </row>
+    <row r="10" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1862,11 +1964,11 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1874,127 +1976,126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.1562" style="17" customWidth="1"/>
-    <col min="2" max="2" width="37.1562" style="17" customWidth="1"/>
-    <col min="3" max="3" width="12.7344" style="17" customWidth="1"/>
-    <col min="4" max="4" width="15" style="17" customWidth="1"/>
-    <col min="5" max="5" width="15" style="17" customWidth="1"/>
-    <col min="6" max="6" width="16.1562" style="17" customWidth="1"/>
-    <col min="7" max="7" width="15" style="17" customWidth="1"/>
-    <col min="8" max="8" width="13.8672" style="17" customWidth="1"/>
-    <col min="9" max="9" width="15" style="17" customWidth="1"/>
-    <col min="10" max="256" width="8.73438" style="17" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="37.125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="16" customWidth="1"/>
+    <col min="4" max="5" width="15" style="16" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="15" style="16" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="15" style="16" customWidth="1"/>
+    <col min="10" max="256" width="8.75" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="G2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
+      <c r="I2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s" s="2">
+    </row>
+    <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s" s="2">
+    </row>
+    <row r="4" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="2">
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="G4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" t="s" s="2">
+      <c r="H4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>50</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -2004,71 +2105,71 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s" s="2">
+    <row r="6" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s" s="2">
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s" s="2">
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s" s="2">
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2077,71 +2178,71 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s" s="2">
+    <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D9" t="s" s="2">
+    </row>
+    <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2150,33 +2251,33 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s" s="2">
+    <row r="12" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>43</v>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2185,8 +2286,9 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2194,94 +2296,90 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="18" customWidth="1"/>
-    <col min="2" max="2" width="8.73438" style="18" customWidth="1"/>
-    <col min="3" max="3" width="8.73438" style="18" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="18" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="18" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="18" customWidth="1"/>
+    <col min="1" max="256" width="8.75" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>//注释行</t>
   </si>
@@ -91,93 +91,6 @@
   </si>
   <si>
     <t>c</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>empty col</t>
-  </si>
-  <si>
-    <t>non-type</t>
-  </si>
-  <si>
-    <t>"string"</t>
-  </si>
-  <si>
-    <t>"array"</t>
-  </si>
-  <si>
-    <t>"dict"</t>
-  </si>
-  <si>
-    <t>"end"</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>st_init_begin</t>
-  </si>
-  <si>
-    <t>push dict object to stack</t>
-  </si>
-  <si>
-    <t>\</t>
-  </si>
-  <si>
-    <t>st_init_body</t>
-  </si>
-  <si>
-    <t>set key-value for stacktop object</t>
-  </si>
-  <si>
-    <t>st_init_end</t>
-  </si>
-  <si>
-    <t>st_array_begin</t>
-  </si>
-  <si>
-    <t>st_dict_begin</t>
-  </si>
-  <si>
-    <t>st_error</t>
-  </si>
-  <si>
-    <t>pop stack top</t>
-  </si>
-  <si>
-    <t>st_dict_body</t>
-  </si>
-  <si>
-    <t>st_dict_read</t>
-  </si>
-  <si>
-    <t>st_dict_end</t>
-  </si>
-  <si>
-    <t>push array object to stack</t>
-  </si>
-  <si>
-    <t>st_array_body</t>
-  </si>
-  <si>
-    <t>add value to stack top object</t>
-  </si>
-  <si>
-    <t>st_array_read</t>
-  </si>
-  <si>
-    <t>st_array_end</t>
-  </si>
-  <si>
-    <t>throw exception</t>
   </si>
   <si>
     <r>
@@ -420,9 +333,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -430,6 +340,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1621,7 +1534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
@@ -1743,14 +1656,14 @@
       <c r="Q3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>55</v>
+      <c r="R3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1795,8 +1708,8 @@
       <c r="Q4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="22" t="s">
-        <v>57</v>
+      <c r="R4" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>19</v>
@@ -1979,7 +1892,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1995,108 +1910,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
@@ -2106,71 +1965,31 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2179,71 +1998,31 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2252,33 +2031,15 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2299,7 +2060,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>//注释行</t>
   </si>
   <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -30,6 +33,9 @@
     <t>number</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>array&lt;</t>
   </si>
   <si>
@@ -39,149 +45,137 @@
     <t>&gt;</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>itemID</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>attr</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>mp</t>
-  </si>
-  <si>
-    <t>skill</t>
-  </si>
-  <si>
-    <t>near</t>
-  </si>
-  <si>
-    <t>attr.speed</t>
-  </si>
-  <si>
-    <t>atk</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>//1</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
       </rPr>
-      <t>unction(def)</t>
+      <t>table</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
       </rPr>
-      <t>unction()</t>
+      <t>function(def)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
       </rPr>
-      <t>able</t>
+      <t>function()</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
-    </r>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>itemID</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>attr</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>near</t>
+  </si>
+  <si>
+    <t>attr.speed</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
       </rPr>
-      <t>ist</t>
+      <t>list</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>//1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>def+1</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>3,4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,8 +200,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -269,6 +269,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="10"/>
       </left>
@@ -283,152 +292,103 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FF7F7F7F"/>
-      <rgbColor rgb="FFFABF8F"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff9bbb59"/>
+      <rgbColor rgb="ff7f7f7f"/>
+      <rgbColor rgb="fffabf8f"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -554,7 +514,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -563,7 +523,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -572,9 +532,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -646,7 +606,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -654,7 +614,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -673,19 +633,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -703,7 +663,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -729,7 +689,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -755,7 +715,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -781,7 +741,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -807,7 +767,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -833,7 +793,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -859,7 +819,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -885,7 +845,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -911,7 +871,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -924,15 +884,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -947,15 +901,15 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -974,7 +928,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1000,7 +954,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1026,7 +980,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1052,7 +1006,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1078,7 +1032,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1104,7 +1058,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1130,7 +1084,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1156,7 +1110,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1182,7 +1136,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1208,7 +1162,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1221,15 +1175,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1243,7 +1191,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1262,19 +1210,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1292,7 +1240,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1318,7 +1266,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1344,7 +1292,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1370,7 +1318,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1396,7 +1344,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1422,7 +1370,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1448,7 +1396,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1474,7 +1422,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1500,7 +1448,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1513,51 +1461,50 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IU10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="7.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="7.625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="2.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="7.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="2.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.625" style="17" customWidth="1"/>
-    <col min="19" max="20" width="17.25" style="1" customWidth="1"/>
-    <col min="21" max="255" width="8.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.57812" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.57812" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.73438" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.57812" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.57812" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.57812" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.57812" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.57812" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.57812" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.57812" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.57812" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.57812" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.57812" style="1" customWidth="1"/>
+    <col min="16" max="16" width="2.57812" style="1" customWidth="1"/>
+    <col min="17" max="17" width="2.57812" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5781" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5781" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.2891" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.2891" style="1" customWidth="1"/>
+    <col min="22" max="256" width="8.73438" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.95" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1579,244 +1526,271 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" ht="15.95" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" ht="15.95" customHeight="1">
+      <c r="A3" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="B4" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="C4" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="D4" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="E4" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="H4" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="I4" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="O4" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="P4" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q4" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="R4" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="T4" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="U4" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="15.95" customHeight="1">
+      <c r="A5" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="O5" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="S5" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="T5" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="U5" t="s" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="15.95" customHeight="1">
+      <c r="A6" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="15"/>
+    </row>
+    <row r="7" ht="15.95" customHeight="1">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15">
+      <c r="B7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3">
         <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="15">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="15">
-        <v>100</v>
-      </c>
-      <c r="G6" s="15">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="15">
-        <v>100</v>
-      </c>
-      <c r="L6" s="15">
-        <v>100</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="15">
-        <v>100</v>
-      </c>
-      <c r="R6" s="15"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="15">
-        <v>3</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="3">
+        <v>100</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="L7" s="3">
+        <v>100</v>
+      </c>
+      <c r="M7" s="3">
+        <v>100</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="R7" s="3">
+        <v>100</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" ht="15.95" customHeight="1">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" t="b" s="16">
+        <v>1</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1831,10 +1805,13 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
+      <c r="S8" t="s" s="2">
+        <v>35</v>
+      </c>
       <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" ht="15.95" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1855,8 +1832,9 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" ht="15.95" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1877,11 +1855,34 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" ht="15.95" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1889,40 +1890,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV12"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="37.125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="16" customWidth="1"/>
-    <col min="4" max="5" width="15" style="16" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="15" style="16" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="15" style="16" customWidth="1"/>
-    <col min="10" max="256" width="8.75" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16.1562" style="17" customWidth="1"/>
+    <col min="2" max="2" width="37.1562" style="17" customWidth="1"/>
+    <col min="3" max="3" width="12.7344" style="17" customWidth="1"/>
+    <col min="4" max="4" width="15" style="17" customWidth="1"/>
+    <col min="5" max="5" width="15" style="17" customWidth="1"/>
+    <col min="6" max="6" width="16.1562" style="17" customWidth="1"/>
+    <col min="7" max="7" width="15" style="17" customWidth="1"/>
+    <col min="8" max="8" width="13.8672" style="17" customWidth="1"/>
+    <col min="9" max="9" width="15" style="17" customWidth="1"/>
+    <col min="10" max="256" width="8.73438" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+    <row r="1" ht="15.95" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" ht="15.95" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1931,10 +1931,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="15.95" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1942,7 +1942,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="15.95" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1951,20 +1951,20 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" ht="15.95" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" ht="15.95" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1975,7 +1975,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="15.95" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1984,20 +1984,20 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" ht="15.95" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" ht="15.95" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2008,7 +2008,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="15.95" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2017,20 +2017,20 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" ht="15.95" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" ht="15.95" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2047,9 +2047,8 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2057,92 +2056,94 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="256" width="8.75" style="17" customWidth="1"/>
+    <col min="1" max="1" width="8.73438" style="19" customWidth="1"/>
+    <col min="2" max="2" width="8.73438" style="19" customWidth="1"/>
+    <col min="3" max="3" width="8.73438" style="19" customWidth="1"/>
+    <col min="4" max="4" width="8.73438" style="19" customWidth="1"/>
+    <col min="5" max="5" width="8.73438" style="19" customWidth="1"/>
+    <col min="6" max="256" width="8.73438" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+    <row r="1" ht="15.95" customHeight="1">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" ht="15.95" customHeight="1">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" ht="15.95" customHeight="1">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" ht="15.95" customHeight="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" ht="15.95" customHeight="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" ht="15.95" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" ht="15.95" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" ht="15.95" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" ht="15.95" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" ht="15.95" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/test.xlsx
+++ b/test.xlsx
@@ -145,7 +145,8 @@
     <t>def+1</t>
   </si>
   <si>
-    <t>c</t>
+    <t>"xxx"
+"zzz"</t>
   </si>
   <si>
     <t>3,4</t>
@@ -296,7 +297,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -344,6 +345,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1782,13 +1786,13 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" t="s" s="16">
         <v>34</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" t="b" s="16">
+      <c r="D8" t="b" s="17">
         <v>1</v>
       </c>
       <c r="E8" s="3"/>
@@ -1812,7 +1816,9 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3">
+        <v>3</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1897,16 +1903,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.1562" style="17" customWidth="1"/>
-    <col min="2" max="2" width="37.1562" style="17" customWidth="1"/>
-    <col min="3" max="3" width="12.7344" style="17" customWidth="1"/>
-    <col min="4" max="4" width="15" style="17" customWidth="1"/>
-    <col min="5" max="5" width="15" style="17" customWidth="1"/>
-    <col min="6" max="6" width="16.1562" style="17" customWidth="1"/>
-    <col min="7" max="7" width="15" style="17" customWidth="1"/>
-    <col min="8" max="8" width="13.8672" style="17" customWidth="1"/>
-    <col min="9" max="9" width="15" style="17" customWidth="1"/>
-    <col min="10" max="256" width="8.73438" style="17" customWidth="1"/>
+    <col min="1" max="1" width="16.1562" style="18" customWidth="1"/>
+    <col min="2" max="2" width="37.1562" style="18" customWidth="1"/>
+    <col min="3" max="3" width="12.7344" style="18" customWidth="1"/>
+    <col min="4" max="4" width="15" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15" style="18" customWidth="1"/>
+    <col min="6" max="6" width="16.1562" style="18" customWidth="1"/>
+    <col min="7" max="7" width="15" style="18" customWidth="1"/>
+    <col min="8" max="8" width="13.8672" style="18" customWidth="1"/>
+    <col min="9" max="9" width="15" style="18" customWidth="1"/>
+    <col min="10" max="256" width="8.73438" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.95" customHeight="1">
@@ -1934,7 +1940,7 @@
     <row r="3" ht="15.95" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="18"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1951,18 +1957,18 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="18"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" ht="15.95" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="18"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" ht="15.95" customHeight="1">
       <c r="A6" s="2"/>
@@ -1984,18 +1990,18 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" ht="15.95" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" ht="15.95" customHeight="1">
       <c r="A9" s="2"/>
@@ -2017,18 +2023,18 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="18"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" ht="15.95" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" ht="15.95" customHeight="1">
       <c r="A12" s="2"/>
@@ -2063,83 +2069,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="19" customWidth="1"/>
-    <col min="2" max="2" width="8.73438" style="19" customWidth="1"/>
-    <col min="3" max="3" width="8.73438" style="19" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="19" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="19" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="19" customWidth="1"/>
+    <col min="1" max="1" width="8.73438" style="20" customWidth="1"/>
+    <col min="2" max="2" width="8.73438" style="20" customWidth="1"/>
+    <col min="3" max="3" width="8.73438" style="20" customWidth="1"/>
+    <col min="4" max="4" width="8.73438" style="20" customWidth="1"/>
+    <col min="5" max="5" width="8.73438" style="20" customWidth="1"/>
+    <col min="6" max="256" width="8.73438" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" ht="15.95" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" ht="15.95" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" ht="15.95" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" ht="15.95" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1816,9 +1816,7 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" s="3">
-        <v>3</v>
-      </c>
+      <c r="A9" s="17"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -7,7 +7,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -208,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -291,13 +290,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -313,7 +365,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -355,13 +407,40 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1816,7 +1895,7 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" s="17"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1895,255 +1974,369 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.1562" style="18" customWidth="1"/>
-    <col min="2" max="2" width="37.1562" style="18" customWidth="1"/>
-    <col min="3" max="3" width="12.7344" style="18" customWidth="1"/>
-    <col min="4" max="4" width="15" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15" style="18" customWidth="1"/>
-    <col min="6" max="6" width="16.1562" style="18" customWidth="1"/>
-    <col min="7" max="7" width="15" style="18" customWidth="1"/>
-    <col min="8" max="8" width="13.8672" style="18" customWidth="1"/>
-    <col min="9" max="9" width="15" style="18" customWidth="1"/>
-    <col min="10" max="256" width="8.73438" style="18" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="7.57812" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.57812" style="18" customWidth="1"/>
+    <col min="4" max="4" width="5.73438" style="18" customWidth="1"/>
+    <col min="5" max="5" width="6" style="18" customWidth="1"/>
+    <col min="6" max="6" width="6.57812" style="18" customWidth="1"/>
+    <col min="7" max="7" width="7.57812" style="18" customWidth="1"/>
+    <col min="8" max="8" width="7.57812" style="18" customWidth="1"/>
+    <col min="9" max="9" width="2.57812" style="18" customWidth="1"/>
+    <col min="10" max="10" width="2.57812" style="18" customWidth="1"/>
+    <col min="11" max="11" width="6.57812" style="18" customWidth="1"/>
+    <col min="12" max="12" width="7.57812" style="18" customWidth="1"/>
+    <col min="13" max="13" width="7.57812" style="18" customWidth="1"/>
+    <col min="14" max="14" width="6.57812" style="18" customWidth="1"/>
+    <col min="15" max="15" width="7.57812" style="18" customWidth="1"/>
+    <col min="16" max="16" width="2.57812" style="18" customWidth="1"/>
+    <col min="17" max="17" width="2.57812" style="18" customWidth="1"/>
+    <col min="18" max="18" width="11.5781" style="18" customWidth="1"/>
+    <col min="19" max="19" width="11.5781" style="18" customWidth="1"/>
+    <col min="20" max="20" width="17.2891" style="18" customWidth="1"/>
+    <col min="21" max="21" width="17.2891" style="18" customWidth="1"/>
+    <col min="22" max="256" width="8.73438" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="A1" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
     </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" t="s" s="6">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="R2" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="T2" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="U2" t="s" s="8">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="A3" t="s" s="19">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s" s="12">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" t="s" s="12">
+        <v>25</v>
+      </c>
+      <c r="S3" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="T3" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s" s="21">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="19"/>
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>100</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>100</v>
+      </c>
+      <c r="M4" s="3">
+        <v>100</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3">
+        <v>100</v>
+      </c>
+      <c r="S4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="T4" t="s" s="14">
+        <v>33</v>
+      </c>
+      <c r="U4" s="3"/>
     </row>
-    <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="19"/>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="24"/>
     </row>
-    <row r="6" ht="15.95" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="27"/>
     </row>
-    <row r="7" ht="15.95" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="19"/>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="27"/>
     </row>
-    <row r="8" ht="15.95" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="27"/>
     </row>
-    <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="27"/>
     </row>
-    <row r="10" ht="15.95" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" ht="15.95" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-    </row>
-    <row r="12" ht="15.95" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="8.73438" style="20" customWidth="1"/>
-    <col min="2" max="2" width="8.73438" style="20" customWidth="1"/>
-    <col min="3" max="3" width="8.73438" style="20" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="20" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="20" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-    </row>
-    <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-    </row>
-    <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" ht="15.95" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" ht="15.95" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" ht="15.95" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-    </row>
-    <row r="10" ht="15.95" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>//注释行</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>3,4</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +1983,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="7.57812" style="18" customWidth="1"/>
     <col min="2" max="2" width="7.57812" style="18" customWidth="1"/>
     <col min="3" max="3" width="7.57812" style="18" customWidth="1"/>
     <col min="4" max="4" width="5.73438" style="18" customWidth="1"/>
@@ -2158,8 +2161,8 @@
       </c>
     </row>
     <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" s="3">
-        <v>4</v>
+      <c r="A4" t="s" s="2">
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>31</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="38">
   <si>
     <t>//注释行</t>
   </si>
@@ -49,6 +52,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>table</t>
     </r>
@@ -59,6 +63,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>function(def)</t>
     </r>
@@ -69,6 +74,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>function()</t>
     </r>
@@ -118,6 +124,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>list</t>
     </r>
@@ -152,30 +159,40 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -348,133 +365,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff9bbb59"/>
-      <rgbColor rgb="ff7f7f7f"/>
-      <rgbColor rgb="fffabf8f"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF9BBB59"/>
+      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FFFABF8F"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -600,7 +649,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -609,7 +658,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -618,7 +667,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -692,7 +741,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -700,7 +749,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -719,7 +768,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -749,7 +798,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -775,7 +824,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -801,7 +850,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -827,7 +876,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -853,7 +902,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -879,7 +928,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -905,7 +954,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -931,7 +980,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -957,7 +1006,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -970,9 +1019,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -987,7 +1042,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -995,7 +1050,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1014,7 +1069,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1040,7 +1095,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1066,7 +1121,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1092,7 +1147,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,7 +1173,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1144,7 +1199,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1170,7 +1225,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1196,7 +1251,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1222,7 +1277,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1248,7 +1303,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1261,9 +1316,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1277,7 +1338,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1296,7 +1357,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1326,7 +1387,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1352,7 +1413,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1378,7 +1439,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,7 +1465,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1430,7 +1491,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1456,7 +1517,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1482,7 +1543,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1508,7 +1569,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1534,7 +1595,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1547,50 +1608,52 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:U11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.57812" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.57812" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.73438" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="7.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.57812" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.57812" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.57812" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.57812" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.57812" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.57812" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.57812" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.57812" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.57812" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.57812" style="1" customWidth="1"/>
-    <col min="16" max="16" width="2.57812" style="1" customWidth="1"/>
-    <col min="17" max="17" width="2.57812" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5781" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5781" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.2891" style="1" customWidth="1"/>
-    <col min="21" max="21" width="17.2891" style="1" customWidth="1"/>
-    <col min="22" max="256" width="8.73438" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7.625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="2.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="7.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="2.625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="11.625" style="1" customWidth="1"/>
+    <col min="20" max="21" width="17.25" style="1" customWidth="1"/>
+    <col min="22" max="256" width="8.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1614,8 +1677,8 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
@@ -1639,18 +1702,18 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" t="s" s="4">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="5"/>
@@ -1666,137 +1729,137 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
-      <c r="S3" t="s" s="4">
+      <c r="S3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="6">
+    <row r="4" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s" s="7">
+      <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s" s="7">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s" s="7">
+      <c r="G4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s" s="7">
+      <c r="H4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s" s="7">
+      <c r="I4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J4" t="s" s="7">
+      <c r="J4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K4" t="s" s="7">
+      <c r="K4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L4" t="s" s="7">
+      <c r="L4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M4" t="s" s="7">
+      <c r="M4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N4" t="s" s="7">
+      <c r="N4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O4" t="s" s="7">
+      <c r="O4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P4" t="s" s="7">
+      <c r="P4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" t="s" s="7">
+      <c r="Q4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="R4" t="s" s="7">
+      <c r="R4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="S4" t="s" s="7">
+      <c r="S4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="T4" t="s" s="7">
+      <c r="T4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="U4" t="s" s="8">
+      <c r="U4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" t="s" s="9">
+    <row r="5" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s" s="10">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s" s="10">
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="10">
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s" s="10">
+      <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" t="s" s="10">
+      <c r="G5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s" s="10">
+      <c r="H5" s="10" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" t="s" s="10">
+      <c r="K5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L5" t="s" s="10">
+      <c r="L5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M5" t="s" s="10">
+      <c r="M5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N5" t="s" s="10">
+      <c r="N5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O5" t="s" s="10">
+      <c r="O5" s="10" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
-      <c r="R5" t="s" s="10">
+      <c r="R5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="S5" t="s" s="10">
+      <c r="S5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="T5" t="s" s="12">
+      <c r="T5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="U5" t="s" s="13">
+      <c r="U5" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" ht="15.95" customHeight="1">
-      <c r="A6" t="s" s="14">
+    <row r="6" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s" s="14">
+      <c r="B6" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="15">
@@ -1821,12 +1884,12 @@
       <c r="T6" s="3"/>
       <c r="U6" s="15"/>
     </row>
-    <row r="7" ht="15.95" customHeight="1">
+    <row r="7" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>31</v>
+      <c r="B7" s="31" t="s">
+        <v>37</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
@@ -1856,25 +1919,25 @@
       <c r="R7" s="3">
         <v>100</v>
       </c>
-      <c r="S7" t="s" s="2">
+      <c r="S7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T7" t="s" s="2">
+      <c r="T7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" ht="15.95" customHeight="1">
+    <row r="8" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" t="s" s="16">
+      <c r="B8" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" t="b" s="17">
+      <c r="D8" s="17" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="3"/>
@@ -1891,13 +1954,13 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" t="s" s="2">
+      <c r="S8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" ht="15.95" customHeight="1">
+    <row r="9" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1920,7 +1983,7 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" ht="15.95" customHeight="1">
+    <row r="10" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1943,7 +2006,7 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" ht="15.95" customHeight="1">
+    <row r="11" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1967,8 +2030,9 @@
       <c r="U11" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1976,49 +2040,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:U10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.57812" style="18" customWidth="1"/>
-    <col min="2" max="2" width="7.57812" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.57812" style="18" customWidth="1"/>
-    <col min="4" max="4" width="5.73438" style="18" customWidth="1"/>
+    <col min="1" max="3" width="7.625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="18" customWidth="1"/>
     <col min="5" max="5" width="6" style="18" customWidth="1"/>
-    <col min="6" max="6" width="6.57812" style="18" customWidth="1"/>
-    <col min="7" max="7" width="7.57812" style="18" customWidth="1"/>
-    <col min="8" max="8" width="7.57812" style="18" customWidth="1"/>
-    <col min="9" max="9" width="2.57812" style="18" customWidth="1"/>
-    <col min="10" max="10" width="2.57812" style="18" customWidth="1"/>
-    <col min="11" max="11" width="6.57812" style="18" customWidth="1"/>
-    <col min="12" max="12" width="7.57812" style="18" customWidth="1"/>
-    <col min="13" max="13" width="7.57812" style="18" customWidth="1"/>
-    <col min="14" max="14" width="6.57812" style="18" customWidth="1"/>
-    <col min="15" max="15" width="7.57812" style="18" customWidth="1"/>
-    <col min="16" max="16" width="2.57812" style="18" customWidth="1"/>
-    <col min="17" max="17" width="2.57812" style="18" customWidth="1"/>
-    <col min="18" max="18" width="11.5781" style="18" customWidth="1"/>
-    <col min="19" max="19" width="11.5781" style="18" customWidth="1"/>
-    <col min="20" max="20" width="17.2891" style="18" customWidth="1"/>
-    <col min="21" max="21" width="17.2891" style="18" customWidth="1"/>
-    <col min="22" max="256" width="8.73438" style="18" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="18" customWidth="1"/>
+    <col min="7" max="8" width="7.625" style="18" customWidth="1"/>
+    <col min="9" max="10" width="2.625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="18" customWidth="1"/>
+    <col min="12" max="13" width="7.625" style="18" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="7.625" style="18" customWidth="1"/>
+    <col min="16" max="17" width="2.625" style="18" customWidth="1"/>
+    <col min="18" max="19" width="11.625" style="18" customWidth="1"/>
+    <col min="20" max="21" width="17.25" style="18" customWidth="1"/>
+    <col min="22" max="256" width="8.75" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" t="s" s="4">
+    <row r="1" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" t="s" s="4">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5"/>
@@ -2034,137 +2090,137 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
-      <c r="S1" t="s" s="4">
+      <c r="S1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s" s="7">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s" s="7">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s" s="7">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s" s="7">
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s" s="7">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="7">
+      <c r="J2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s" s="7">
+      <c r="K2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s" s="7">
+      <c r="L2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="s" s="7">
+      <c r="M2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N2" t="s" s="7">
+      <c r="N2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O2" t="s" s="7">
+      <c r="O2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P2" t="s" s="7">
+      <c r="P2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" t="s" s="7">
+      <c r="Q2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="R2" t="s" s="7">
+      <c r="R2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="S2" t="s" s="7">
+      <c r="S2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="T2" t="s" s="7">
+      <c r="T2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="U2" t="s" s="8">
+      <c r="U2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" t="s" s="19">
+    <row r="3" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="C3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s" s="12">
+      <c r="D3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="20"/>
-      <c r="G3" t="s" s="12">
+      <c r="G3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
-      <c r="K3" t="s" s="12">
+      <c r="K3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L3" t="s" s="12">
+      <c r="L3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M3" t="s" s="12">
+      <c r="M3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N3" t="s" s="12">
+      <c r="N3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O3" t="s" s="12">
+      <c r="O3" s="12" t="s">
         <v>24</v>
       </c>
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
-      <c r="R3" t="s" s="12">
+      <c r="R3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="S3" t="s" s="12">
+      <c r="S3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="T3" t="s" s="10">
+      <c r="T3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="U3" t="s" s="21">
+      <c r="U3" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="3">
@@ -2195,15 +2251,15 @@
       <c r="R4" s="3">
         <v>100</v>
       </c>
-      <c r="S4" t="s" s="2">
+      <c r="S4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T4" t="s" s="14">
+      <c r="T4" s="14" t="s">
         <v>33</v>
       </c>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -2226,7 +2282,7 @@
       <c r="T5" s="23"/>
       <c r="U5" s="24"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -2249,7 +2305,7 @@
       <c r="T6" s="26"/>
       <c r="U6" s="27"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -2272,7 +2328,7 @@
       <c r="T7" s="26"/>
       <c r="U7" s="27"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -2295,7 +2351,7 @@
       <c r="T8" s="26"/>
       <c r="U8" s="27"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -2318,7 +2374,7 @@
       <c r="T9" s="26"/>
       <c r="U9" s="27"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="28"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -2342,8 +2398,9 @@
       <c r="U10" s="30"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
